--- a/MIDUSdom-ExplConf/Tables.xlsx
+++ b/MIDUSdom-ExplConf/Tables.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7080" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="417">
   <si>
     <t xml:space="preserve">Forceful    </t>
   </si>
@@ -307,9 +311,6 @@
     <t>Avoid difficult reading material (i293)</t>
   </si>
   <si>
-    <t>Factor correlations</t>
-  </si>
-  <si>
     <t>MIDUS2</t>
   </si>
   <si>
@@ -322,9 +323,6 @@
     <t>u2</t>
   </si>
   <si>
-    <t>communality</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.42</t>
   </si>
   <si>
@@ -533,22 +531,819 @@
   </si>
   <si>
     <t>Enjoy the beauty of nature (i128)</t>
+  </si>
+  <si>
+    <t>Dominance</t>
+  </si>
+  <si>
+    <t>Extraversion</t>
+  </si>
+  <si>
+    <t>Openness</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Correlation coefficients</t>
+  </si>
+  <si>
+    <t>PANAS</t>
+  </si>
+  <si>
+    <t>Subjective well-being</t>
+  </si>
+  <si>
+    <t>Sense of control</t>
+  </si>
+  <si>
+    <t>Anger expression inventory</t>
+  </si>
+  <si>
+    <t>Cognitive functions</t>
+  </si>
+  <si>
+    <t>Religion &amp; spirituality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Religious coping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Positive affect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Negative affect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Autonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Environmental mastery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Personal growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Affectual relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Purspose in life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Self-acceptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Personal mastery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Perceived constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Anger control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Executive function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Spirituality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Religiosity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Marital risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Partner disagreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Support from partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Strain from partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Affectual solidarity</t>
+  </si>
+  <si>
+    <t>-0.017</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>-0.098</t>
+  </si>
+  <si>
+    <t>0.178</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>-0.012</t>
+  </si>
+  <si>
+    <t>-0.163</t>
+  </si>
+  <si>
+    <t>-0.270</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.112 </t>
+  </si>
+  <si>
+    <t>-0.377</t>
+  </si>
+  <si>
+    <t>-0.178</t>
+  </si>
+  <si>
+    <t>-0.075</t>
+  </si>
+  <si>
+    <t>-0.398</t>
+  </si>
+  <si>
+    <t>-0.168</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.440</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.239</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>0.220</t>
+  </si>
+  <si>
+    <t>0.775</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>0.233</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>0.273</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.730</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.559</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>-0.405</t>
+  </si>
+  <si>
+    <t>-0.590</t>
+  </si>
+  <si>
+    <t>-0.383</t>
+  </si>
+  <si>
+    <t>-0.678</t>
+  </si>
+  <si>
+    <t>-0.399</t>
+  </si>
+  <si>
+    <t>-0.254</t>
+  </si>
+  <si>
+    <t>-0.538</t>
+  </si>
+  <si>
+    <t>-0.202</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.040</t>
+  </si>
+  <si>
+    <t>-0.184</t>
+  </si>
+  <si>
+    <t>-0.504</t>
+  </si>
+  <si>
+    <t>-0.222</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.142</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>-0.072</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.100</t>
+  </si>
+  <si>
+    <t>-0.019</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.070</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>0.113</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.310</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>-0.131</t>
+  </si>
+  <si>
+    <t>-0.011</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>-0.124</t>
+  </si>
+  <si>
+    <t>-0.004</t>
+  </si>
+  <si>
+    <t>-0.036</t>
+  </si>
+  <si>
+    <t>-0.138</t>
+  </si>
+  <si>
+    <t>-0.082</t>
+  </si>
+  <si>
+    <t>-0.028</t>
+  </si>
+  <si>
+    <t>-0.130</t>
+  </si>
+  <si>
+    <t>-0.079</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.139</t>
+  </si>
+  <si>
+    <t>-0.052</t>
+  </si>
+  <si>
+    <t>-0.165</t>
+  </si>
+  <si>
+    <t>-0.102</t>
+  </si>
+  <si>
+    <t>-0.029</t>
+  </si>
+  <si>
+    <t>-0.174</t>
+  </si>
+  <si>
+    <t>-0.096</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.230</t>
+  </si>
+  <si>
+    <t>0.138</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>0.250</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>0.480</t>
+  </si>
+  <si>
+    <t>1.029</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>0.470</t>
+  </si>
+  <si>
+    <t>1.111</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>-0.083</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>-0.198</t>
+  </si>
+  <si>
+    <t>-.0.086</t>
+  </si>
+  <si>
+    <t>Table 6. Age and sex associations with dominance, extraversion, and openness.</t>
+  </si>
+  <si>
+    <t>Table 7. Associations between dominance, extraversion, openness and additional MIDUS2 variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Dominance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Extraversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Openness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Intellect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Factor 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Factor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Factor 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Factor 4</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Table 4. Correlations between factors in best fit EFA solutions.</t>
+  </si>
+  <si>
+    <t>Table 3. Four factor oblique EFA solution for the MIDUS2 data.</t>
+  </si>
+  <si>
+    <t>Table 5. Four factor oblique EFA solution for the IPIP data.</t>
+  </si>
+  <si>
+    <t>Multiple regression coefficients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Anger expressed inward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Anger expressed outward</t>
+  </si>
+  <si>
+    <t>Relationship quality.</t>
+  </si>
+  <si>
+    <t>Positive &amp; negative affect</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Subjective psychological well-being</t>
+  </si>
+  <si>
+    <t>(autonomy)</t>
+  </si>
+  <si>
+    <t>Anger (externalizing antagonism)</t>
+  </si>
+  <si>
+    <t>Religiosity and Spirituality</t>
+  </si>
+  <si>
+    <t>(spirituality)</t>
+  </si>
+  <si>
+    <t>Relationship satisfaction</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>External criteria</t>
+  </si>
+  <si>
+    <t>Construct</t>
+  </si>
+  <si>
+    <t>Johnson’s IPIP</t>
+  </si>
+  <si>
+    <t>Dominance/Assertiveness</t>
+  </si>
+  <si>
+    <t>“Assertive”</t>
+  </si>
+  <si>
+    <t>“Take charge”</t>
+  </si>
+  <si>
+    <t>“Dominant”</t>
+  </si>
+  <si>
+    <t>“Wait for others to lead the way” (–)</t>
+  </si>
+  <si>
+    <t>“Forceful”</t>
+  </si>
+  <si>
+    <t>“Can talk others into doing things”</t>
+  </si>
+  <si>
+    <t>“Outspoken”</t>
+  </si>
+  <si>
+    <t>“Hold back my opinions” (–)</t>
+  </si>
+  <si>
+    <t>“Self-confident”</t>
+  </si>
+  <si>
+    <t>Extraversion/Enthusiasm</t>
+  </si>
+  <si>
+    <t>“Outgoing”</t>
+  </si>
+  <si>
+    <t>“Make friends easily”</t>
+  </si>
+  <si>
+    <t>“Friendly”</t>
+  </si>
+  <si>
+    <t>“Have a lot of fun”</t>
+  </si>
+  <si>
+    <t>“Lively”</t>
+  </si>
+  <si>
+    <t>“Keep others at a distance” (–)</t>
+  </si>
+  <si>
+    <t>“Active”</t>
+  </si>
+  <si>
+    <t>“Warm up quickly to others”</t>
+  </si>
+  <si>
+    <t>“Talkative”</t>
+  </si>
+  <si>
+    <t>“Am hard to get to know” (–)</t>
+  </si>
+  <si>
+    <t>“Creative”</t>
+  </si>
+  <si>
+    <t>“Believe in the importance of art”</t>
+  </si>
+  <si>
+    <t>“Imaginative”</t>
+  </si>
+  <si>
+    <t>“See the beauty in things that others might not notice”</t>
+  </si>
+  <si>
+    <t>“Intelligent”</t>
+  </si>
+  <si>
+    <t>“Do not like poetry” (–)</t>
+  </si>
+  <si>
+    <t>“Curious”</t>
+  </si>
+  <si>
+    <t>“Enjoy the beauty of nature”</t>
+  </si>
+  <si>
+    <t>“Broadminded”</t>
+  </si>
+  <si>
+    <t>“Spend time reflecting on things”</t>
+  </si>
+  <si>
+    <t>“Sophisticated”</t>
+  </si>
+  <si>
+    <t>“Seldom daydream” (–)</t>
+  </si>
+  <si>
+    <t>“Adventurous”</t>
+  </si>
+  <si>
+    <t>“Seldom get lost in thought” (–)</t>
+  </si>
+  <si>
+    <t>Intellect</t>
+  </si>
+  <si>
+    <t>“Avoid philosophical discussions” (–)</t>
+  </si>
+  <si>
+    <t>“Like to solve complex problems”</t>
+  </si>
+  <si>
+    <t>“Have a rich vocabulary”</t>
+  </si>
+  <si>
+    <t>“Can handle a lot of information”</t>
+  </si>
+  <si>
+    <t>“Avoid difficult reading material” (–)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>– symbols indicate inverse loadings.</t>
+    </r>
+  </si>
+  <si>
+    <t>Table 1. Hypothesized relationships between external variables and personality variables.</t>
+  </si>
+  <si>
+    <t>Table 2. Items composed into domains for personality factors among both samples.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bolding indicates the highest loading of an item that is beyond ±0.3. h2=communality, u2=uniqueness. Values preceded by 'i' next to each item refer to the item's index number in Johnson's IPIP sample.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bolding indicates the highest loading of an item that is beyond ±0.3. h2=communality, u2=uniqueness.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Note.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Age numbers are bivariate correlation coefficients, sex numbers are standardized bivariate regression coefficients.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Regression coefficients are standardized from a single model also controlling for age and sex.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -561,16 +1356,68 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -578,20 +1425,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -603,10 +1476,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,17 +1879,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -909,7 +2353,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="5"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -923,141 +2367,143 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="5"/>
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="5"/>
+      <c r="I4" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="J4" s="44"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="37">
         <v>0.17</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="39">
         <v>0.45</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="37">
         <v>0.19</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="37">
         <v>-0.02</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="5"/>
+      <c r="G5" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="44"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="39">
         <v>0.73</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="37">
         <v>0.02</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="37">
         <v>-0.03</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="37">
         <v>-0.01</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="5"/>
+      <c r="G6" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="44"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="37">
         <v>0.06</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="37">
         <v>0.11</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" s="5"/>
+      <c r="G7" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="44"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="3" t="s">
@@ -1073,32 +2519,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="39">
         <v>0.61</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="37">
         <v>-0.05</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="37">
         <v>0.19</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="37">
         <v>0.04</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J8" s="5"/>
+      <c r="G8" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="44"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
         <v>18</v>
@@ -1107,41 +2553,41 @@
         <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0.74</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="37">
+        <v>-0.03</v>
+      </c>
+      <c r="F9" s="37">
+        <v>-0.03</v>
+      </c>
+      <c r="G9" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-0.03</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-0.03</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="5"/>
+      <c r="H9" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="44"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
         <v>19</v>
@@ -1151,38 +2597,38 @@
         <v>1</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P9" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0.69</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="5"/>
+      <c r="H10" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="44"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
         <v>72</v>
@@ -1193,35 +2639,35 @@
         <v>1</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="37">
         <v>-0.01</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="37">
         <v>-0.02</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="39">
         <v>0.95</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="5"/>
+      <c r="G11" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="44"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
         <v>21</v>
@@ -1233,354 +2679,356 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="37">
         <v>0.09</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="39">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="37">
         <v>-0.08</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="37">
         <v>0.05</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="5"/>
+      <c r="G12" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="44"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="37">
         <v>0.08</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="39">
         <v>0.46</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="37">
         <v>-0.04</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="37">
         <v>0.19</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="5"/>
+      <c r="G13" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="44"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="37">
         <v>-0.05</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="39">
         <v>0.45</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="37">
         <v>0.02</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="37">
         <v>0.09</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="5"/>
+      <c r="G14" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="44"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="39">
         <v>0.41</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="37">
         <v>0.04</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="5"/>
+      <c r="H15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="44"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="37">
         <v>0.12</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="39">
         <v>0.45</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="37">
         <v>0.09</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="5"/>
+      <c r="G16" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="44"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="37">
         <v>0.09</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="37">
         <v>-0.03</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="39">
         <v>0.76</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="37">
         <v>0.03</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="5"/>
+      <c r="H17" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="44"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="37">
         <v>-0.23</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="37">
         <v>0.18</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="37">
         <v>0.01</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18" s="5"/>
+      <c r="I18" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="44"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="37">
         <v>0.05</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="37">
         <v>0.25</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="39">
         <v>0.52</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="37">
         <v>0.01</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="5"/>
+      <c r="G19" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="44"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="37">
         <v>-0.03</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="39">
         <v>0.49</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="37">
         <v>-0.01</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="5"/>
+      <c r="G20" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" s="44"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="38">
         <v>0.17</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="38">
         <v>-0.11</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="38">
         <v>0.04</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J21" s="5"/>
+      <c r="G21" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="44"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="44"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="44"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="44"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1595,7 +3043,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="5"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1610,7 +3058,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1625,7 +3073,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="5"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1640,7 +3088,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1655,7 +3103,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="5"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1670,7 +3118,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="5"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1685,7 +3133,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="5"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1700,7 +3148,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1714,7 +3162,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="5"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1728,7 +3176,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="5"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -1742,7 +3190,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="5"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -1756,7 +3204,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="5"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -1770,7 +3218,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -1781,30 +3229,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="A1:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1815,15 +3264,17 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1834,28 +3285,30 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>98</v>
+      <c r="H3" s="38" t="s">
+        <v>349</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1867,30 +3320,30 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="37">
         <v>-0.01</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>128</v>
+      <c r="F4" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1902,30 +3355,30 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="37">
         <v>0.08</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>128</v>
+      <c r="F5" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1937,30 +3390,30 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="37">
         <v>0.05</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>128</v>
+      <c r="F6" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1972,30 +3425,30 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="37">
         <v>0.06</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>129</v>
+      <c r="F7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -2015,44 +3468,44 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="37">
         <v>-0.15</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>130</v>
+      <c r="F8" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>128</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>60</v>
@@ -2060,78 +3513,78 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>129</v>
+      <c r="F9" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3">
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="37">
         <v>-0.01</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>128</v>
+      <c r="F10" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2139,40 +3592,40 @@
         <v>1</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="37">
         <v>-0.09</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>131</v>
+      <c r="F11" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2183,30 +3636,30 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="37">
         <v>-0.18</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>132</v>
+      <c r="F12" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>130</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2218,30 +3671,30 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="37">
         <v>-0.17</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>133</v>
+      <c r="F13" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>131</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2253,30 +3706,30 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="37">
         <v>-0.11</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>129</v>
+      <c r="F14" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2288,30 +3741,30 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="37">
         <v>-0.19</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>134</v>
+      <c r="F15" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>132</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2323,30 +3776,30 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="37">
         <v>0.19</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>135</v>
+      <c r="F16" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>133</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2358,30 +3811,30 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="37">
         <v>0.21</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>136</v>
+      <c r="F17" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2393,30 +3846,30 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="37">
         <v>0.19</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>132</v>
+      <c r="F18" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>130</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2428,30 +3881,30 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="37">
         <v>0.23</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>137</v>
+      <c r="F19" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>135</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2463,30 +3916,30 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="39">
         <v>0.72</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>128</v>
+      <c r="F20" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2498,30 +3951,30 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="39">
         <v>0.53</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>129</v>
+      <c r="F21" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2533,30 +3986,30 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="39">
         <v>0.64</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>129</v>
+      <c r="H22" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2568,30 +4021,30 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="39">
         <v>0.65</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>128</v>
+      <c r="F23" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2603,30 +4056,30 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="40">
         <v>0.69</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>128</v>
+      <c r="F24" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>126</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2638,15 +4091,17 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2657,26 +4112,34 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E14" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2689,13 +4152,15 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2703,15 +4168,21 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="34"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2719,21 +4190,15 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2741,23 +4206,23 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="C5" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="34"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2765,21 +4230,21 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="D6" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="34"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2787,19 +4252,19 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="E7" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="34"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2807,17 +4272,17 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2825,13 +4290,15 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2839,15 +4306,23 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="34"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2855,21 +4330,21 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2"/>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="34"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2877,23 +4352,19 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="E12" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="34"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2901,21 +4372,17 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2923,19 +4390,13 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2943,17 +4404,13 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2"/>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -3017,36 +4474,1206 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A2:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="44"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="48">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="52">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C28" s="42">
+        <v>0.246</v>
+      </c>
+      <c r="D28" s="52">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="42">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C33" s="42">
+        <v>0.253</v>
+      </c>
+      <c r="D33" s="42">
+        <v>0.151</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>